--- a/outputs/fft-d__Bacteria_include_p__Bacteroidota.xlsx
+++ b/outputs/fft-d__Bacteria_include_p__Bacteroidota.xlsx
@@ -12,6 +12,7 @@
     <sheet name="g__RC9-LSVM" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="g__Prevotella-LSVM1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="g__C941-LSVM" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14042,4 +14043,1000 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p__Cyanobacteria</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.24051047896149</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.747609680003874</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.057132639079011</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3.249166066690312</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.204827642091992</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.117786807851749</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.371118213661115</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2.307481405432503</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2.218463022124144</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-2.043527682794281</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.417213475538579</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.519236034179292</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.73363393196184</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-3.837774906834441</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.71825958158618</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.9577614989117126</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.552878624910919</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.517758658152487</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-3.672280448663222</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-2.360610464982986</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.644340398362023</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.920918642611428</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.643227877503529</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-2.203109645243473</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-2.158437536019184</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.7049357497280841</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.96967072203325</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2.590407298583043</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-3.810417457899396</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-3.020725296103275</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.854784233175126</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.076176768961831</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2.015739582814688</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-3.818583027866049</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-3.178004346489137</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.9748677412850449</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8092667484207907</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.55286195747414</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.386333691906026</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.993642975215683</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.650888914583458</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.046498338954142</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-2.884481399926516</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-3.248407042264141</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.699038223544134</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.6631359827942924</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5617963237146782</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-2.361443831959937</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-2.93468313107453</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.363354141826034</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.6810555625754651</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4039801931409479</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.280461963541726</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-3.67047781805458</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1.550478482562391</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-2.211663755314251</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.251935753869815</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.353148643137402</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-3.660336060862051</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-2.94512028336817</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.6530660466902499</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.548454701739272</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-2.948732736615664</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-4.573726451709452</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-3.270324659646687</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.05698233516321283</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.198978486278217</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.924358006772999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-4.129780588601202</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-2.593953075703922</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.9244821601090937</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.087592247620321</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.351581764215156</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-2.992748261483758</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-2.299972593159226</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.7858006227634672</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.488399715424833</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-3.043076596024014</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-4.206378800818905</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-2.616732188390099</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.6302837252204526</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9625875914934101</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-2.386031539596504</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-3.206941164380734</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.82071369319165</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.7063165638722996</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3866153277321644</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.910686044767969</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-3.087235873742304</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.364270685104229</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.126682118437843</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.260633899231311</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-2.162428477054121</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2.974251783701231</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.139875760577768</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.5221425451628199</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9339313187441824</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1.902293109596028</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2.743765937212334</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.594975641470991</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.5956593171161051</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.806474962728211</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-2.271991853440884</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-4.326572966345736</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-3.271455100832863</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.39767846172841</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2754597924731478</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.7823218889055678</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2.829750711702279</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.196939623027236</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.9778552389863217</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.601432908178306</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-2.152743822564879</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-3.347675871688673</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.533577458389715</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.8498213979994006</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.731462929413869</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.76050613977558</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-3.585468181605818</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-2.164078697009637</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.5700817181066093</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7441329314923257</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2.079768160998805</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.763576034934426</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-2.561352037869427</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.5660841151411808</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.170324560606005</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1.46222074119454</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-3.433835980662452</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-2.002190783428937</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.7932663241890822</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5803704380542681</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-1.920286910789924</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-2.882508316559625</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1.90802221707826</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.6040672403764261</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5194821035950969</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.605606086697818</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-2.910711368722337</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.241245059943556</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.635104923636682</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.776756398849771</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-2.724007173414262</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-4.553498288792414</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-2.832764477320674</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.1023359638444</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.060443064083075</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1.851266982558339</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-2.115138636550453</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-2.025081658952716</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.411418110931259</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.04638052148584193</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1.334531159099172</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-4.105888492413831</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-2.197083685162921</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.9398914780430471</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.377818430642734</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-2.382292984633687</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-3.061588538068575</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-2.367265695457205</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.110582182024624</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.134107285240334</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-2.46659729376241</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-3.076126363124648</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.928918230556961</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.7666345395127229</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.167441149648127</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1.766702721438108</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-2.952276975768206</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.133613695822298</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.2469439269874819</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.310077001908721</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-2.208555556303182</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-3.080840413649615</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-2.647420910887515</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/outputs/fft-d__Bacteria_include_p__Bacteroidota.xlsx
+++ b/outputs/fft-d__Bacteria_include_p__Bacteroidota.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144B0574-45DC-EB4B-B7FF-C97A89465CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7548AE1-5955-8D4A-93D2-597225F8C849}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="19" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-LSVM" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,11 @@
     <sheet name="g__Ruminococcus_E-LSVM-0.3" sheetId="10" r:id="rId10"/>
     <sheet name="g__C941-LSVM-0.3" sheetId="11" r:id="rId11"/>
     <sheet name="statistics-0.3" sheetId="12" r:id="rId12"/>
-    <sheet name="f__Lachnospiracea-LSVM-1" sheetId="13" r:id="rId13"/>
-    <sheet name="g__Ruminococcus_E-LSVM-1" sheetId="14" r:id="rId14"/>
-    <sheet name="g__Prevotella-LSVM-1" sheetId="15" r:id="rId15"/>
-    <sheet name="g__RC9-LSVM-1" sheetId="16" r:id="rId16"/>
-    <sheet name="g__C941-LSVM-1" sheetId="17" r:id="rId17"/>
+    <sheet name="f__Lachnospiraceae-t" sheetId="13" r:id="rId13"/>
+    <sheet name="g__Ruminococcus_E-t" sheetId="14" r:id="rId14"/>
+    <sheet name="g__Prevotella-t" sheetId="15" r:id="rId15"/>
+    <sheet name="g__RC9-t" sheetId="16" r:id="rId16"/>
+    <sheet name="g__C941-t" sheetId="17" r:id="rId17"/>
     <sheet name="g__Ruminococcus_E-LSVM-0.5" sheetId="18" r:id="rId18"/>
     <sheet name="f__Lachnospiracea-LSVM-0.5" sheetId="19" r:id="rId19"/>
     <sheet name="g__Prevotella-LSVM-0.5" sheetId="20" r:id="rId20"/>
@@ -18427,7 +18427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -35405,7 +35405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
